--- a/adsphd-master/chapters/aquacrophydro/image/Flow chart.xlsx
+++ b/adsphd-master/chapters/aquacrophydro/image/Flow chart.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -68,7 +68,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
+      <xdr:colOff>69273</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
@@ -81,7 +81,7 @@
       </xdr:nvPicPr>
       <xdr:blipFill>
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print"/>
-        <a:srcRect/>
+        <a:srcRect r="1511"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -89,7 +89,7 @@
       <xdr:spPr bwMode="auto">
         <a:xfrm>
           <a:off x="0" y="0"/>
-          <a:ext cx="9972675" cy="5876925"/>
+          <a:ext cx="9767455" cy="5876925"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -389,7 +389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
       <selection activeCell="W26" sqref="W26"/>
     </sheetView>
   </sheetViews>
@@ -416,7 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData/>
